--- a/dataset/fruits_test.xlsx
+++ b/dataset/fruits_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\RandomForestWorkshop\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC89D95-0FA0-4582-840A-2420886A7F6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CE43DF-1C8E-4339-A881-C3DBE8C257E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C00DF8E-78B7-49FC-A653-DC48F8B45DFD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>Orange</t>
   </si>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066CB9E1-FB23-46CA-9394-EAF0988AEF3F}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,6 +474,72 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>4.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>4.5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1.5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>3.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
